--- a/Purdue/csco_ratios.xlsx
+++ b/Purdue/csco_ratios.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PurdueClass\RemNB\Purdue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hainguyen/Desktop/github/RemNB/Purdue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4777C830-262C-467D-AA49-6436ACEAA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5CDD19-4E74-FC4A-BFA6-1E78D5D9829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15225" xr2:uid="{C2D753ED-E26E-4A0C-902D-DC8E7FF169CB}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="15440" windowHeight="16740" activeTab="1" xr2:uid="{C2D753ED-E26E-4A0C-902D-DC8E7FF169CB}"/>
   </bookViews>
   <sheets>
     <sheet name="csco_ratios" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="119">
   <si>
     <t>symbol</t>
   </si>
@@ -205,12 +220,186 @@
   <si>
     <t>null</t>
   </si>
+  <si>
+    <t>available fund</t>
+  </si>
+  <si>
+    <t>initial margin</t>
+  </si>
+  <si>
+    <t>funds for share</t>
+  </si>
+  <si>
+    <t>Share price</t>
+  </si>
+  <si>
+    <t>number of share</t>
+  </si>
+  <si>
+    <t>capital gain</t>
+  </si>
+  <si>
+    <t>dividend</t>
+  </si>
+  <si>
+    <t>purchased price</t>
+  </si>
+  <si>
+    <t>Total return</t>
+  </si>
+  <si>
+    <t>div tax rate</t>
+  </si>
+  <si>
+    <t>capital tax rate</t>
+  </si>
+  <si>
+    <t>div tax</t>
+  </si>
+  <si>
+    <t>capt tax</t>
+  </si>
+  <si>
+    <t>after-tax return</t>
+  </si>
+  <si>
+    <t>holding perio</t>
+  </si>
+  <si>
+    <t>holding return</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Annualized Return</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>purchase price/share</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>available cash</t>
+  </si>
+  <si>
+    <t>require to borrow</t>
+  </si>
+  <si>
+    <t>call money rate</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>spread rate</t>
+  </si>
+  <si>
+    <t>annual interest rate</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Holding period</t>
+  </si>
+  <si>
+    <t>Selling price/share</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>total proceed</t>
+  </si>
+  <si>
+    <t>Div received</t>
+  </si>
+  <si>
+    <t>Total Dollar return</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>annual div</t>
+  </si>
+  <si>
+    <t>div yield</t>
+  </si>
+  <si>
+    <t>Stock price</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>outstanding share</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>stock price</t>
+  </si>
+  <si>
+    <t>annual div paid</t>
+  </si>
+  <si>
+    <t>quarter div</t>
+  </si>
+  <si>
+    <t>Annual Coupon</t>
+  </si>
+  <si>
+    <t>Semi coupon payment</t>
+  </si>
+  <si>
+    <t>Total payment</t>
+  </si>
+  <si>
+    <t>number of bonds</t>
+  </si>
+  <si>
+    <t>Maturity payment</t>
+  </si>
+  <si>
+    <t>cost/unit</t>
+  </si>
+  <si>
+    <t>unit need</t>
+  </si>
+  <si>
+    <t>require contract</t>
+  </si>
+  <si>
+    <t>premium/contract</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>sell price</t>
+  </si>
+  <si>
+    <t>total profit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +551,20 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="0.39997558519241921"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -669,8 +872,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -713,16 +931,32 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -762,6 +996,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3003,6 +3238,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="704160831"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5852,6 +6088,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="646006223"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7588,6 +7825,1170 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1855302319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>debtRatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.24886466848319699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2384243804736204E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101221250611689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.118219022123757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15374316046935699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25222664198868999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23504375643476899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25972515367668503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.235450300858185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22342066072734601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19887952517739199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16020199424850001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17794439782473601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19314541592513901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.188389005300135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15111261155472</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11735962134368499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.120134983127109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14618492439108799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8181818181818101E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4F5-644D-AA83-0C562E03494C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>debtEquityRatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.68112721913016605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18918675174170799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.239232645261861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27924894003634099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38457278481012602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73474129456971704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59182020183316297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.509805403934257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45046787764409801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42464032692984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36901925486666298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27416790691381399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31827839613262898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35595336338052003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34536210597672501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26638548917121602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20065205367798999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20355781448538701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26480428236868497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0540540540540501E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4F5-644D-AA83-0C562E03494C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1604505808"/>
+        <c:axId val="89381087"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interestCoverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>12.1083499005964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.201405152224801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.802777777777699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5691244239631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.282051282051199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.552968568102401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0530222693531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.9059233449477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.727810650887498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0282685512367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.569148936170201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.204116638078901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.8875838926174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.2197452229299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.7094703049759</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.161849710982601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.5987460815047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.867374005304999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.270270270270203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4F5-644D-AA83-0C562E03494C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="278277264"/>
+        <c:axId val="2107775296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1604505808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89381087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89381087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604505808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2107775296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278277264"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="278277264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2107775296"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7834,6 +9235,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10453,6 +11894,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10493,16 +12450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>512762</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10530,15 +12487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592137</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10565,16 +12522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592137</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655637</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10601,16 +12558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487362</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>550862</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10630,6 +12587,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2A5FDC-C19C-545D-202E-7A3A7F75A242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10957,16 +12955,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276F018B-C86D-42D7-A7A9-FE94E14E7D6A}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11142,7 +13140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -11318,7 +13316,7 @@
         <v>4.2585045207558796</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -11494,7 +13492,7 @@
         <v>4.8069887042590098</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -11670,7 +13668,7 @@
         <v>4.75681743896613</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -11846,7 +13844,7 @@
         <v>5.6637708055723799</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -12022,7 +14020,7 @@
         <v>5.1832911392404997</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -12198,7 +14196,7 @@
         <v>7.4411268654493403</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -12374,7 +14372,7 @@
         <v>4.7660191186001297</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -12550,7 +14548,7 @@
         <v>2.3876982626971199</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -12726,7 +14724,7 @@
         <v>2.42617110953841</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -12902,7 +14900,7 @@
         <v>2.4277488401694902</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -13078,7 +15076,7 @@
         <v>2.3989513068953898</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -13254,7 +15252,7 @@
         <v>2.2982258828304598</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -13430,7 +15428,7 @@
         <v>1.64237149373306</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -13606,7 +15604,7 @@
         <v>1.86838760870945</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -13782,7 +15780,7 @@
         <v>2.9880745678454401</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -13958,7 +15956,7 @@
         <v>3.2995223432607901</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -14134,7 +16132,7 @@
         <v>3.9084208074986102</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -14310,7 +16308,7 @@
         <v>5.5722156925031703</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -14486,7 +16484,7 @@
         <v>4.6560990297758398</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -14662,7 +16660,7 @@
         <v>5.3605786657460897</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -14838,7 +16836,7 @@
         <v>5.5406489584139997</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -15014,7 +17012,7 @@
         <v>4.8494744728673798</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -15190,7 +17188,7 @@
         <v>3.0115096314907799</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -15366,7 +17364,7 @@
         <v>5.0573657817109101</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -15542,7 +17540,7 @@
         <v>16.396451296373101</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -15718,7 +17716,7 @@
         <v>17.676379517040498</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -15894,7 +17892,7 @@
         <v>14.4685531148571</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -16070,7 +18068,7 @@
         <v>12.337450712440299</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -16246,7 +18244,7 @@
         <v>11.3346920970257</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -16422,7 +18420,7 @@
         <v>6.3815337799759302</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -16598,7 +18596,7 @@
         <v>7.7222332232963904</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -16774,7 +18772,7 @@
         <v>14.0799818181818</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -16950,7 +18948,7 @@
         <v>12.7378363192182</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -17126,7 +19124,7 @@
         <v>9.2353129411764705</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -17302,7 +19300,7 @@
         <v>4.9278478697687804</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -17478,7 +19476,7 @@
         <v>40.208779936216203</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -17661,6 +19659,512 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E46749-21C6-D94D-8279-682839117DB2}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>71666.666666666672</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2" s="11">
+        <f>D2/E2</f>
+        <v>930.73593073593076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <f>5*A5</f>
+        <v>2500</v>
+      </c>
+      <c r="C5" s="12">
+        <f>0.25*A5</f>
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5" s="14">
+        <f>(B5+C5)/D5</f>
+        <v>35.958904109589042</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <f>C5*(1-F5)</f>
+        <v>106.25</v>
+      </c>
+      <c r="I5">
+        <f>B5*(1-G5)</f>
+        <v>1750</v>
+      </c>
+      <c r="J5" s="14">
+        <f>(H5+I5)/D5</f>
+        <v>25.42808219178082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <f>(1+C8)^(D8/B8)-1</f>
+        <v>0.25184677175512649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11" s="15">
+        <f>A11*B11</f>
+        <v>30000</v>
+      </c>
+      <c r="D11">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="16">
+        <f>C11-D11</f>
+        <v>10000</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K11" s="17">
+        <f>I11+J11</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L11">
+        <f>K11*H11*E11</f>
+        <v>312.5</v>
+      </c>
+      <c r="M11">
+        <f>A11*F11</f>
+        <v>32500</v>
+      </c>
+      <c r="N11">
+        <f>G11*A11</f>
+        <v>125</v>
+      </c>
+      <c r="O11" s="18">
+        <f>M11+N11-C11-L11</f>
+        <v>2312.5</v>
+      </c>
+      <c r="P11" s="13">
+        <f>O11/D11</f>
+        <v>0.11562500000000001</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>(1+P11)^(1/E11)-1</f>
+        <v>0.24461914062500023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.5228000000000002</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C14" s="19">
+        <f>A14/B14</f>
+        <v>74.2</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <f>C14/D14</f>
+        <v>4.9466666666666672</v>
+      </c>
+      <c r="F14">
+        <v>100000000</v>
+      </c>
+      <c r="G14" s="20">
+        <f>F14*E14</f>
+        <v>494666666.66666675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>74.2</v>
+      </c>
+      <c r="B17" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C17" s="12">
+        <f>A17*B17</f>
+        <v>2.5228000000000002</v>
+      </c>
+      <c r="D17" s="10">
+        <f>C17/4</f>
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="E17">
+        <v>21.5</v>
+      </c>
+      <c r="F17">
+        <f>A17/E17</f>
+        <v>3.4511627906976745</v>
+      </c>
+      <c r="M17">
+        <v>32312.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B20">
+        <f>1000*(A20/2)</f>
+        <v>36</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D20">
+        <f>B20*C20</f>
+        <v>108000</v>
+      </c>
+      <c r="E20">
+        <f>C20*1000</f>
+        <v>3000000</v>
+      </c>
+      <c r="F20">
+        <f>D20+E20</f>
+        <v>3108000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+      <c r="C23" s="12">
+        <f>B23/A23</f>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23">
+        <f>C23*A23*D23</f>
+        <v>607500</v>
+      </c>
+      <c r="F23">
+        <v>1975</v>
+      </c>
+      <c r="G23">
+        <f>F23-D23</f>
+        <v>-50</v>
+      </c>
+      <c r="H23">
+        <f>G23*B23</f>
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C31" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06775370-C189-4678-937E-C4ABB4765077}">
   <dimension ref="A1:J58"/>
   <sheetViews>
@@ -17668,13 +20172,13 @@
       <selection activeCell="J28" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17682,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17690,7 +20194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17698,7 +20202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17706,7 +20210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -17714,7 +20218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -17722,7 +20226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -17730,7 +20234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17738,7 +20242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17746,7 +20250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17754,7 +20258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17762,7 +20266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17770,7 +20274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -17778,7 +20282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -17786,7 +20290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -17794,7 +20298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -17802,7 +20306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -17810,7 +20314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -17818,7 +20322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -17826,7 +20330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -17834,7 +20338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -17842,7 +20346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -17850,7 +20354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -17858,7 +20362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -17866,7 +20370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -17874,7 +20378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -17882,7 +20386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -17890,7 +20394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -17898,7 +20402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -17906,7 +20410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -17914,7 +20418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -17922,7 +20426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -17930,7 +20434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -17938,7 +20442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -17946,7 +20450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -17954,7 +20458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -17962,7 +20466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -17970,7 +20474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -17978,7 +20482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -17986,7 +20490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -17994,7 +20498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -18002,7 +20506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -18010,7 +20514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -18018,7 +20522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -18026,7 +20530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -18034,7 +20538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -18042,7 +20546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -18050,7 +20554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -18058,7 +20562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -18066,7 +20570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -18074,7 +20578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -18082,7 +20586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -18090,7 +20594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -18098,7 +20602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -18106,7 +20610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -18114,7 +20618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -18122,7 +20626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -18130,7 +20634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -18141,4 +20645,552 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211C1CFB-8B2A-CE4A-A9CF-D91572FA3389}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.24886466848319699</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.68112721913016605</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12.1083499005964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.2384243804736204E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.18918675174170799</v>
+      </c>
+      <c r="D3" s="6">
+        <v>35.201405152224801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.101221250611689</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.239232645261861</v>
+      </c>
+      <c r="D4" s="6">
+        <v>38.802777777777699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.118219022123757</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.27924894003634099</v>
+      </c>
+      <c r="D5" s="6">
+        <v>29.5691244239631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.15374316046935699</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.38457278481012602</v>
+      </c>
+      <c r="D6" s="6">
+        <v>23.282051282051199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.25222664198868999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.73474129456971704</v>
+      </c>
+      <c r="D7" s="6">
+        <v>16.552968568102401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.23504375643476899</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.59182020183316297</v>
+      </c>
+      <c r="D8" s="6">
+        <v>13.0530222693531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.25972515367668503</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.509805403934257</v>
+      </c>
+      <c r="D9" s="6">
+        <v>13.9059233449477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.235450300858185</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.45046787764409801</v>
+      </c>
+      <c r="D10" s="6">
+        <v>18.727810650887498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.22342066072734601</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.42464032692984</v>
+      </c>
+      <c r="D11" s="6">
+        <v>19.0282685512367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.19887952517739199</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.36901925486666298</v>
+      </c>
+      <c r="D12" s="6">
+        <v>16.569148936170201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.16020199424850001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.27416790691381399</v>
+      </c>
+      <c r="D13" s="6">
+        <v>19.204116638078901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.17794439782473601</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.31827839613262898</v>
+      </c>
+      <c r="D14" s="6">
+        <v>16.8875838926174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.19314541592513901</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.35595336338052003</v>
+      </c>
+      <c r="D15" s="6">
+        <v>12.2197452229299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.188389005300135</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.34536210597672501</v>
+      </c>
+      <c r="D16" s="6">
+        <v>14.7094703049759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.15111261155472</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.26638548917121602</v>
+      </c>
+      <c r="D17" s="6">
+        <v>21.161849710982601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.11735962134368499</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.20065205367798999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>29.5987460815047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.120134983127109</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.20355781448538701</v>
+      </c>
+      <c r="D19" s="6">
+        <v>22.867374005304999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.14618492439108799</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.26480428236868497</v>
+      </c>
+      <c r="D20" s="6">
+        <v>47.270270270270203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>1999</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>1997</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>1995</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>1993</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>1992</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>1989</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1.8181818181818101E-2</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4.0540540540540501E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>1988</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>